--- a/Software/MSFT.xlsx
+++ b/Software/MSFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205EF276-83CA-CB4B-87EF-F8E4CEC22ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FCB7D5-7E80-954E-8CD2-A09A145FD129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -2045,12 +2045,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>468.35</v>
-    <v>353.35</v>
-    <v>0.90100000000000002</v>
-    <v>8.7200000000000006</v>
-    <v>2.1193E-2</v>
-    <v>-0.68</v>
-    <v>-1.6180000000000001E-3</v>
+    <v>357.63</v>
+    <v>0.89939999999999998</v>
+    <v>5.24</v>
+    <v>1.2471000000000001E-2</v>
+    <v>0.32</v>
+    <v>7.5219999999999996E-4</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
     <v>228000</v>
@@ -2058,26 +2058,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>420.45</v>
+    <v>426.85</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.99940979141</v>
+    <v>45604.041529131253</v>
     <v>4</v>
-    <v>410.52</v>
-    <v>3123988298580</v>
+    <v>419.88</v>
+    <v>3162947075020</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>412.42</v>
-    <v>34.683500000000002</v>
-    <v>411.46</v>
+    <v>421.28</v>
+    <v>35.116700000000002</v>
     <v>420.18</v>
-    <v>419.5</v>
+    <v>425.42</v>
+    <v>425.75</v>
     <v>7434881000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>26681842</v>
-    <v>19328100</v>
+    <v>19901782</v>
+    <v>19732084</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -3040,14 +3040,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>420.18</v>
+        <v>425.42</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="15">
         <f ca="1">A5/F10</f>
-        <v>11.225254396622351</v>
+        <v>11.365242813582466</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>26</v>
@@ -3087,14 +3087,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.1193E-2</v>
+        <v>1.2471000000000001E-2</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="15">
         <f ca="1">A5/F15</f>
-        <v>32.088627174567307</v>
+        <v>32.488799496892817</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>25</v>
@@ -3135,14 +3135,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>3123988298580</v>
+        <v>3162947075020</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="25">
         <f ca="1">F18/A5</f>
-        <v>2.4860848561853579E-2</v>
+        <v>2.4554631537585532E-2</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>24</v>
@@ -3184,7 +3184,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.90100000000000002</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>18</v>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="K6" s="35">
         <f ca="1">K5/A3-1</f>
-        <v>-0.41649269077741546</v>
+        <v>-0.42367989001658235</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>13</v>

--- a/Software/MSFT.xlsx
+++ b/Software/MSFT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FCB7D5-7E80-954E-8CD2-A09A145FD129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6D9151-C207-F145-8CC5-20FFA6B40086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -2045,12 +2045,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>468.35</v>
-    <v>357.63</v>
-    <v>0.89939999999999998</v>
-    <v>5.24</v>
-    <v>1.2471000000000001E-2</v>
-    <v>0.32</v>
-    <v>7.5219999999999996E-4</v>
+    <v>362.9</v>
+    <v>0.89910000000000001</v>
+    <v>2.0299999999999998</v>
+    <v>4.8830000000000002E-3</v>
+    <v>-0.02</v>
+    <v>-4.7869999999999994E-5</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
     <v>228000</v>
@@ -2058,26 +2058,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>426.85</v>
+    <v>417.94</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.041529131253</v>
+    <v>45616.041648275001</v>
     <v>4</v>
-    <v>419.88</v>
-    <v>3162947075020</v>
+    <v>411.55</v>
+    <v>3106218932990</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>421.28</v>
-    <v>35.116700000000002</v>
-    <v>420.18</v>
-    <v>425.42</v>
-    <v>425.75</v>
+    <v>413.11</v>
+    <v>34.3185</v>
+    <v>415.76</v>
+    <v>417.79</v>
+    <v>417.77</v>
     <v>7434881000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>19901782</v>
-    <v>19732084</v>
+    <v>18133529</v>
+    <v>21843661</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -2262,9 +2262,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3040,14 +3040,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>425.42</v>
+        <v>417.79</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="15">
         <f ca="1">A5/F10</f>
-        <v>11.365242813582466</v>
+        <v>11.161404717894358</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>26</v>
@@ -3087,14 +3087,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.2471000000000001E-2</v>
+        <v>4.8830000000000002E-3</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="15">
         <f ca="1">A5/F15</f>
-        <v>32.488799496892817</v>
+        <v>31.906105829079145</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>25</v>
@@ -3135,14 +3135,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>3162947075020</v>
+        <v>3106218932990</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="25">
         <f ca="1">F18/A5</f>
-        <v>2.4554631537585532E-2</v>
+        <v>2.5003066968380373E-2</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>24</v>
@@ -3184,7 +3184,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.89939999999999998</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>18</v>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="K6" s="35">
         <f ca="1">K5/A3-1</f>
-        <v>-0.42367989001658235</v>
+        <v>-0.4131546920961594</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>13</v>
